--- a/data/book_data.xlsx
+++ b/data/book_data.xlsx
@@ -51,7 +51,7 @@
     <t>original format</t>
   </si>
   <si>
-    <t># of pages</t>
+    <t>pages</t>
   </si>
   <si>
     <t>author gender</t>
